--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rspo1-Lgr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rspo1-Lgr5.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Rspo1</t>
+  </si>
+  <si>
+    <t>Lgr5</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Rspo1</t>
-  </si>
-  <si>
-    <t>Lgr5</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -534,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3702603333333334</v>
+        <v>0.7878926666666667</v>
       </c>
       <c r="H2">
-        <v>1.110781</v>
+        <v>2.363678</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1399036666666666</v>
+        <v>0.4220680000000001</v>
       </c>
       <c r="N2">
-        <v>0.4197109999999999</v>
+        <v>1.266204</v>
       </c>
       <c r="O2">
-        <v>0.02821562274959919</v>
+        <v>0.06297272914451456</v>
       </c>
       <c r="P2">
-        <v>0.02821562274959919</v>
+        <v>0.06297272914451456</v>
       </c>
       <c r="Q2">
-        <v>0.05180077825455555</v>
+        <v>0.3325442820346667</v>
       </c>
       <c r="R2">
-        <v>0.4662070042909999</v>
+        <v>2.992898538312001</v>
       </c>
       <c r="S2">
-        <v>0.02821562274959919</v>
+        <v>0.06297272914451456</v>
       </c>
       <c r="T2">
-        <v>0.02821562274959919</v>
+        <v>0.06297272914451456</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3702603333333334</v>
+        <v>0.7878926666666667</v>
       </c>
       <c r="H3">
-        <v>1.110781</v>
+        <v>2.363678</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>7.336805</v>
       </c>
       <c r="O3">
-        <v>0.4932263440018803</v>
+        <v>0.3648848321843242</v>
       </c>
       <c r="P3">
-        <v>0.4932263440018802</v>
+        <v>0.3648848321843242</v>
       </c>
       <c r="Q3">
-        <v>0.9055092883005557</v>
+        <v>1.926871618754445</v>
       </c>
       <c r="R3">
-        <v>8.149583594705</v>
+        <v>17.34184456879</v>
       </c>
       <c r="S3">
-        <v>0.4932263440018803</v>
+        <v>0.3648848321843242</v>
       </c>
       <c r="T3">
-        <v>0.4932263440018802</v>
+        <v>0.3648848321843242</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3702603333333334</v>
+        <v>0.7878926666666667</v>
       </c>
       <c r="H4">
-        <v>1.110781</v>
+        <v>2.363678</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.02060433333333333</v>
+        <v>3.729698666666666</v>
       </c>
       <c r="N4">
-        <v>0.061813</v>
+        <v>11.189096</v>
       </c>
       <c r="O4">
-        <v>0.004155460040411081</v>
+        <v>0.5564726629989883</v>
       </c>
       <c r="P4">
-        <v>0.00415546004041108</v>
+        <v>0.5564726629989883</v>
       </c>
       <c r="Q4">
-        <v>0.007628967328111112</v>
+        <v>2.938602228343111</v>
       </c>
       <c r="R4">
-        <v>0.068660705953</v>
+        <v>26.447420055088</v>
       </c>
       <c r="S4">
-        <v>0.004155460040411081</v>
+        <v>0.5564726629989883</v>
       </c>
       <c r="T4">
-        <v>0.00415546004041108</v>
+        <v>0.5564726629989883</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3702603333333334</v>
+        <v>0.7878926666666667</v>
       </c>
       <c r="H5">
-        <v>1.110781</v>
+        <v>2.363678</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -738,34 +738,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.352266333333333</v>
+        <v>0.105025</v>
       </c>
       <c r="N5">
-        <v>7.056799</v>
+        <v>0.315075</v>
       </c>
       <c r="O5">
-        <v>0.4744025732081095</v>
+        <v>0.01566977567217282</v>
       </c>
       <c r="P5">
-        <v>0.4744025732081095</v>
+        <v>0.01566977567217282</v>
       </c>
       <c r="Q5">
-        <v>0.8709509166687778</v>
+        <v>0.08274842731666666</v>
       </c>
       <c r="R5">
-        <v>7.838558250019</v>
+        <v>0.7447358458500001</v>
       </c>
       <c r="S5">
-        <v>0.4744025732081095</v>
+        <v>0.01566977567217282</v>
       </c>
       <c r="T5">
-        <v>0.4744025732081095</v>
+        <v>0.01566977567217282</v>
       </c>
     </row>
   </sheetData>
